--- a/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4464" yWindow="636" windowWidth="23040" windowHeight="8784"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>名称</t>
   </si>
@@ -32,7 +22,7 @@
     <t>资产类型</t>
   </si>
   <si>
-    <t>工号</t>
+    <t>姓名</t>
   </si>
   <si>
     <t>资产编号</t>
@@ -47,166 +37,96 @@
     <t>在库状态</t>
   </si>
   <si>
+    <t>通関資料管理番号</t>
+  </si>
+  <si>
     <t>型号</t>
   </si>
   <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>HS编码</t>
+  </si>
+  <si>
+    <t>輸入日付</t>
+  </si>
+  <si>
+    <t>延期返却期限</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>管理番号</t>
+  </si>
+  <si>
+    <t>機材名称</t>
+  </si>
+  <si>
     <t>INVOICEと一致性</t>
   </si>
   <si>
+    <t>设备写真あるか</t>
+  </si>
+  <si>
     <t>輸出部門担当者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実施日</t>
   </si>
   <si>
     <t>動作状況</t>
   </si>
   <si>
-    <t>実施日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動作状況</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>現場担当者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>実施日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>備考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>現場実施者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>実施日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INVOICEとの一致性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入荷写真との一致性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>梱包状況</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現場担当者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸出部門担当者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>実施日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最終確認</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>現場TL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>輸出部門TL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>実施日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入日付</t>
-  </si>
-  <si>
-    <t>延期返却期限</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>客户</t>
-  </si>
-  <si>
-    <t>通関資料管理番号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理番号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機材名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HS编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备写真あるか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -214,20 +134,340 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -235,33 +475,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -583,30 +1093,30 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="4.796875" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.796875" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" customWidth="1"/>
-    <col min="5" max="5" width="24.796875" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" customWidth="1"/>
-    <col min="7" max="17" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="4.8" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="4.8" customWidth="1"/>
+    <col min="4" max="4" width="10.8" customWidth="1"/>
+    <col min="5" max="5" width="24.8" customWidth="1"/>
+    <col min="6" max="6" width="10.8" customWidth="1"/>
+    <col min="7" max="17" width="8.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,109 +1139,109 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_queren2\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F24B77-3C85-49F1-9271-7371297C42DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>名称</t>
   </si>
@@ -225,13 +226,17 @@
   </si>
   <si>
     <t>归还</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -627,24 +632,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="17" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="36.25" customWidth="1"/>
+    <col min="9" max="17" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,33 +773,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>Sheet1!$E$3:$E$6</xm:f>
+            <xm:f>Sheet1!$E$3:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sheet1!$G$3:$G$6</xm:f>
           </x14:formula1>
@@ -805,16 +812,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -834,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
@@ -842,7 +849,7 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>140000</v>
+        <v>140001</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -854,7 +861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
@@ -862,7 +869,7 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>150000</v>
+        <v>150001</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -874,12 +881,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>42</v>
       </c>
       <c r="D5">
-        <v>210000</v>
+        <v>210001</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -891,82 +898,85 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>45</v>
       </c>
       <c r="D6">
-        <v>180000</v>
+        <v>180001</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>47</v>
       </c>
       <c r="D7">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>160001</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>48</v>
       </c>
       <c r="D8">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>240001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>49</v>
       </c>
       <c r="D9">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>130001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>51</v>
       </c>
       <c r="D11">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>54</v>
       </c>
       <c r="D14">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>190001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>55</v>
       </c>
@@ -974,48 +984,49 @@
         <v>100004</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>56</v>
       </c>
       <c r="D16">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>57</v>
       </c>
       <c r="D17">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+        <v>220001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>58</v>
       </c>
       <c r="D18">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>59</v>
       </c>
       <c r="D19">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>60</v>
       </c>
       <c r="D20">
-        <v>250000</v>
+        <v>250001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_queren2\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F24B77-3C85-49F1-9271-7371297C42DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>名称</t>
   </si>
@@ -226,17 +225,13 @@
   </si>
   <si>
     <t>归还</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -632,26 +627,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="36.25" customWidth="1"/>
-    <col min="9" max="17" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="17" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -773,33 +766,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$E$3:$E$7</xm:f>
+            <xm:f>Sheet1!$E$3:$E$6</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$G$3:$G$6</xm:f>
           </x14:formula1>
@@ -812,16 +805,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -841,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
@@ -849,7 +842,7 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>140001</v>
+        <v>140000</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -861,7 +854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
@@ -869,7 +862,7 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>150001</v>
+        <v>150000</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -881,12 +874,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>42</v>
       </c>
       <c r="D5">
-        <v>210001</v>
+        <v>210000</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -898,85 +891,82 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>45</v>
       </c>
       <c r="D6">
-        <v>180001</v>
+        <v>180000</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>47</v>
       </c>
       <c r="D7">
-        <v>160001</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>48</v>
       </c>
       <c r="D8">
-        <v>240001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>49</v>
       </c>
       <c r="D9">
-        <v>130001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10">
-        <v>230001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>51</v>
       </c>
       <c r="D11">
-        <v>120001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>170001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13">
-        <v>200001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>54</v>
       </c>
       <c r="D14">
-        <v>190001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>55</v>
       </c>
@@ -984,49 +974,48 @@
         <v>100004</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>56</v>
       </c>
       <c r="D16">
-        <v>260001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>57</v>
       </c>
       <c r="D17">
-        <v>220001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>58</v>
       </c>
       <c r="D18">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>59</v>
       </c>
       <c r="D19">
-        <v>110001</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>60</v>
       </c>
       <c r="D20">
-        <v>250001</v>
+        <v>250000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_queren2\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANSCS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C9199-0898-44AF-AC2F-B49FE1EE5685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>名称</t>
   </si>
@@ -118,121 +119,110 @@
     <t>原值</t>
   </si>
   <si>
-    <t>资产类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>抗金属大型</t>
+  </si>
+  <si>
+    <t>在用</t>
+  </si>
+  <si>
+    <t>ALD</t>
+  </si>
+  <si>
+    <t>抗金属</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>IED</t>
+  </si>
+  <si>
+    <t>线缆</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>LSD</t>
+  </si>
+  <si>
+    <t>ECD</t>
+  </si>
+  <si>
+    <t>DTD</t>
+  </si>
+  <si>
+    <t>OSD</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>ISD</t>
+  </si>
+  <si>
+    <t>NBPO</t>
+  </si>
+  <si>
+    <t>BSEO</t>
+  </si>
+  <si>
+    <t>SDEO</t>
+  </si>
+  <si>
+    <t>ADMN</t>
+  </si>
+  <si>
+    <t>FPO</t>
+  </si>
+  <si>
+    <t>DANP</t>
   </si>
   <si>
     <t>使用部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>部门代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APD</t>
-  </si>
-  <si>
-    <t>抗金属大型</t>
-  </si>
-  <si>
-    <t>在用</t>
+  </si>
+  <si>
+    <t>加工贸易</t>
   </si>
   <si>
     <t>库存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALD</t>
-  </si>
-  <si>
-    <t>抗金属</t>
+  </si>
+  <si>
+    <t>无偿借用</t>
   </si>
   <si>
     <t>空闲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外借</t>
   </si>
   <si>
     <t>APO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
   </si>
   <si>
     <t>报废</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IED</t>
-  </si>
-  <si>
-    <t>线缆</t>
-  </si>
-  <si>
-    <t>CTA</t>
-  </si>
-  <si>
-    <t>LSD</t>
-  </si>
-  <si>
-    <t>ECD</t>
-  </si>
-  <si>
-    <t>DTD</t>
-  </si>
-  <si>
-    <t>OSD</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>ISD</t>
-  </si>
-  <si>
-    <t>NBPO</t>
-  </si>
-  <si>
-    <t>BSEO</t>
-  </si>
-  <si>
-    <t>SDEO</t>
-  </si>
-  <si>
-    <t>ADMN</t>
-  </si>
-  <si>
-    <t>FPO</t>
-  </si>
-  <si>
-    <t>DANP</t>
-  </si>
-  <si>
-    <t>加工贸易</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无偿借用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>外借</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>归还</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,13 +242,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -627,24 +610,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="17" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="17" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -774,25 +757,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>Sheet1!$E$3:$E$6</xm:f>
+            <xm:f>Sheet1!$E$3:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sheet1!$G$3:$G$6</xm:f>
           </x14:formula1>
@@ -805,24 +788,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -834,184 +817,187 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>140001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>150001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3">
-        <v>140000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D5">
+        <v>210001</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D6">
+        <v>180001</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="D4">
-        <v>150000</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D7">
+        <v>160001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="D8">
+        <v>240001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D5">
-        <v>210000</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D9">
+        <v>130001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D10">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D11">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D6">
-        <v>180000</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D12">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="D13">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D7">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D14">
+        <v>190001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
         <v>48</v>
-      </c>
-      <c r="D8">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>55</v>
       </c>
       <c r="D15">
         <v>100004</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+        <v>220001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>250000</v>
+        <v>250001</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_001\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F24B77-3C85-49F1-9271-7371297C42DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15276"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>名称</t>
   </si>
@@ -131,9 +130,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>APD</t>
-  </si>
-  <si>
     <t>抗金属大型</t>
   </si>
   <si>
@@ -144,9 +140,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ALD</t>
-  </si>
-  <si>
     <t>抗金属</t>
   </si>
   <si>
@@ -154,10 +147,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>APO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>普通</t>
   </si>
   <si>
@@ -165,52 +154,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>IED</t>
-  </si>
-  <si>
     <t>线缆</t>
-  </si>
-  <si>
-    <t>CTA</t>
-  </si>
-  <si>
-    <t>LSD</t>
-  </si>
-  <si>
-    <t>ECD</t>
-  </si>
-  <si>
-    <t>DTD</t>
-  </si>
-  <si>
-    <t>OSD</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>ISD</t>
-  </si>
-  <si>
-    <t>NBPO</t>
-  </si>
-  <si>
-    <t>BSEO</t>
-  </si>
-  <si>
-    <t>SDEO</t>
-  </si>
-  <si>
-    <t>ADMN</t>
-  </si>
-  <si>
-    <t>FPO</t>
-  </si>
-  <si>
-    <t>DANP</t>
   </si>
   <si>
     <t>加工贸易</t>
@@ -231,12 +175,92 @@
   <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDG-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDG-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSDG-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSDG-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDG-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDG-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDG-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDG-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDG-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDEO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -632,26 +656,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="36.25" customWidth="1"/>
-    <col min="9" max="17" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" customWidth="1"/>
+    <col min="2" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="5" width="24.8984375" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="7" max="7" width="8.8984375" customWidth="1"/>
+    <col min="8" max="8" width="36.19921875" customWidth="1"/>
+    <col min="9" max="17" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -773,33 +795,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$E$3:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$G$3:$G$6</xm:f>
           </x14:formula1>
@@ -812,16 +834,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -841,187 +863,176 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>100001</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="D3">
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>110001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>130001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
         <v>140001</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>150001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="D5">
-        <v>210001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>180001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>160001</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>180001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>190001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>250001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8">
-        <v>240001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>130001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>230001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>120001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>170001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>200001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>190001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15">
-        <v>100004</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16">
-        <v>260001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17">
-        <v>220001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19">
-        <v>110001</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20">
-        <v>250001</v>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/duiwaizichan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_001\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\01_local\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15276"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>名称</t>
   </si>
@@ -177,91 +177,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ASDG-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPDG-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPDG-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSDG-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSDG-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDG-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDG-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDG-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSDG-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSDG-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>ASDC1</t>
+  </si>
+  <si>
+    <t>ASDC2</t>
+  </si>
+  <si>
+    <t>ASDC3</t>
+  </si>
+  <si>
+    <t>GSDC</t>
+  </si>
+  <si>
+    <t>DSDC</t>
+  </si>
+  <si>
+    <t>ECDO</t>
   </si>
   <si>
     <t>HAPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FAPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DPPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SDEO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NBPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMPC</t>
+  </si>
+  <si>
+    <t>SPDC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +255,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,18 +279,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -659,21 +633,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" customWidth="1"/>
-    <col min="2" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" customWidth="1"/>
-    <col min="5" max="5" width="24.8984375" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" customWidth="1"/>
-    <col min="8" max="8" width="36.19921875" customWidth="1"/>
-    <col min="9" max="17" width="8.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="36.25" customWidth="1"/>
+    <col min="9" max="17" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:40" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -835,15 +811,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -863,14 +842,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
         <v>100001</v>
       </c>
       <c r="E3" t="s">
@@ -883,14 +862,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4">
         <v>110001</v>
       </c>
       <c r="E4" t="s">
@@ -903,11 +882,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="2:7">
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4">
         <v>130001</v>
       </c>
       <c r="E5" t="s">
@@ -920,124 +899,98 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
+    <row r="6" spans="2:7">
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4">
         <v>140001</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7">
+    <row r="7" spans="2:7">
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="4">
         <v>160001</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="2:7">
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4">
+        <v>180001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4">
+        <v>190001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4">
+        <v>220001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="4">
+        <v>250001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8">
-        <v>170001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9">
-        <v>180001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10">
-        <v>190001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11">
-        <v>200001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>250001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13">
-        <v>260001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    </row>
+    <row r="16" spans="2:7">
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>